--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="485">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T20:18:51+00:00</t>
+    <t>2024-02-09T15:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,6 +124,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t xml:space="preserve">Care Team
@@ -340,6 +460,9 @@
 </t>
   </si>
   <si>
+    <t>Solicitud de exámenes</t>
+  </si>
+  <si>
     <t>ExtBool Solicitud Examenes</t>
   </si>
   <si>
@@ -495,7 +618,7 @@
     <t>CarePlan.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+    <t>Estado del CarePlan, en este caso 'active'</t>
   </si>
   <si>
     <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
@@ -508,6 +631,9 @@
     <t>Allows clinicians to determine whether the plan is actionable or not.</t>
   </si>
   <si>
+    <t>active</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -529,7 +655,7 @@
     <t>CarePlan.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | option</t>
+    <t>Intención del CarePlan, en este caso 'plan'</t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
@@ -539,6 +665,9 @@
   </si>
   <si>
     <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
+  </si>
+  <si>
+    <t>plan</t>
   </si>
   <si>
     <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
@@ -597,7 +726,7 @@
     <t>CarePlan.description</t>
   </si>
   <si>
-    <t>Summary of nature of plan</t>
+    <t>Descripción como texto libre</t>
   </si>
   <si>
     <t>A description of the scope and nature of the plan.</t>
@@ -616,11 +745,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PacienteMinsalMPI)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PatientLE)
 </t>
   </si>
   <si>
-    <t>Who the care plan is for</t>
+    <t>Referencia al paciente</t>
   </si>
   <si>
     <t>Identifies the patient or group whose intended care is described by the plan.</t>
@@ -1003,7 +1132,7 @@
 </t>
   </si>
   <si>
-    <t>Activity details defined in specific resource</t>
+    <t>Detalles definidos en un recurso específico</t>
   </si>
   <si>
     <t>The details of the proposed activity represented in a specific resource.</t>
@@ -1719,7 +1848,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1732,10 +1861,11 @@
     <col min="2" max="2" width="42.671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.4375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="143.37890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1746,7002 +1876,7124 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="159.0703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.859375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="42.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="55.8046875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="173.13671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="145.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AM1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>39</v>
+      <c r="K1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>39</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>39</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>186</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>205</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>39</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>39</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>39</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>39</v>
+        <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>39</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>39</v>
+        <v>361</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>279</v>
+        <v>362</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>39</v>
+        <v>360</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>39</v>
+        <v>329</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AA44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="AG44" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>333</v>
+        <v>130</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>123</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>39</v>
+        <v>374</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>39</v>
+        <v>375</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>126</v>
+        <v>376</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>61</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>169</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>343</v>
+        <v>171</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>347</v>
+        <v>172</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>39</v>
+        <v>391</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>39</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>358</v>
+        <v>213</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>39</v>
+        <v>397</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>39</v>
+        <v>398</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>249</v>
+        <v>399</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>261</v>
+        <v>401</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>39</v>
+        <v>414</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>39</v>
+        <v>415</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>39</v>
+        <v>417</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>39</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>382</v>
+        <v>213</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q53" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q54" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="R54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>213</v>
+        <v>431</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>214</v>
+        <v>432</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>402</v>
+        <v>257</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>411</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>39</v>
+        <v>452</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>419</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>39</v>
+        <v>459</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>39</v>
+        <v>460</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>427</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>39</v>
+        <v>464</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>432</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>180</v>
+        <v>465</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>310</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>440</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>309</v>
+        <v>479</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>310</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN61">
+  <autoFilter ref="A1:AN62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8751,7 +9003,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$120</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4385" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,17 +453,17 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>CarePlan.extension:SolicitudExamenes</t>
-  </si>
-  <si>
-    <t>SolicitudExamenes</t>
+    <t>CarePlan.extension:Requiere-Examen</t>
+  </si>
+  <si>
+    <t>Requiere-Examen</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtBoolSolicitudExamenes}
 </t>
   </si>
   <si>
-    <t>Solicitud de exámenes</t>
+    <t>Declaración si el paciente requiere exámenes</t>
   </si>
   <si>
     <t>ExtBool Solicitud Examenes</t>
@@ -996,6 +996,9 @@
     <t>CarePlan.activity</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
@@ -1009,6 +1012,10 @@
     <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:reference}
+</t>
+  </si>
+  <si>
     <t>cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
 ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
@@ -1135,7 +1142,7 @@
 </t>
   </si>
   <si>
-    <t>Detalles definidos en un recurso específico</t>
+    <t>Activity details defined in specific resource</t>
   </si>
   <si>
     <t>The details of the proposed activity represented in a specific resource.</t>
@@ -1517,6 +1524,197 @@
   </si>
   <si>
     <t>.text</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta</t>
+  </si>
+  <si>
+    <t>referenciaReceta</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.outcomeCodeableConcept</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.outcomeReference</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.progress</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>Detalles definidos en un recurso específico</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.kind</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.instantiatesUri</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.code</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.reasonCode</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.reasonReference</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.goal</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.status</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.statusReason</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.doNotPerform</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.scheduled[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.location</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.performer</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.product[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.dailyAmount</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.quantity</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaReceta.detail.description</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE</t>
+  </si>
+  <si>
+    <t>referenciaServiceRequestExamenLE</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.outcomeCodeableConcept</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.outcomeReference</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.progress</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ServiceRequestExamenLE)
+</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.kind</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.instantiatesUri</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.code</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.reasonCode</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.reasonReference</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.goal</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.status</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.statusReason</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.doNotPerform</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.scheduled[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.location</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.performer</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.product[x]</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.dailyAmount</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.quantity</t>
+  </si>
+  <si>
+    <t>CarePlan.activity:referenciaServiceRequestExamenLE.detail.description</t>
   </si>
   <si>
     <t>CarePlan.note</t>
@@ -1851,7 +2049,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1860,9 +2058,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="76.5546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.4375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="34.3125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -5577,10 +5775,10 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
@@ -5589,17 +5787,17 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5636,16 +5834,14 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>312</v>
@@ -5660,13 +5856,13 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5677,10 +5873,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5706,10 +5902,10 @@
         <v>224</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5760,7 +5956,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5778,7 +5974,7 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5789,10 +5985,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5818,10 +6014,10 @@
         <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>150</v>
@@ -5874,7 +6070,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5892,7 +6088,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -5903,14 +6099,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5932,10 +6128,10 @@
         <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>150</v>
@@ -5990,7 +6186,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6019,10 +6215,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6048,13 +6244,13 @@
         <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6083,10 +6279,10 @@
         <v>219</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6104,7 +6300,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6133,10 +6329,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6162,16 +6358,16 @@
         <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6220,7 +6416,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6235,10 +6431,10 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6249,10 +6445,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6275,19 +6471,19 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6336,7 +6532,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6354,21 +6550,21 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6382,7 +6578,7 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6391,19 +6587,19 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6452,7 +6648,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6461,16 +6657,16 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6481,10 +6677,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6507,17 +6703,17 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6566,7 +6762,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6575,7 +6771,7 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
@@ -6584,7 +6780,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6595,10 +6791,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6624,10 +6820,10 @@
         <v>224</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6678,7 +6874,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6696,7 +6892,7 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6707,10 +6903,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6736,10 +6932,10 @@
         <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>150</v>
@@ -6792,7 +6988,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6810,7 +7006,7 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6821,14 +7017,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6850,10 +7046,10 @@
         <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>150</v>
@@ -6908,7 +7104,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6937,10 +7133,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6966,14 +7162,14 @@
         <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7001,10 +7197,10 @@
         <v>198</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7022,7 +7218,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7040,7 +7236,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7051,10 +7247,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7077,17 +7273,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>165</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7136,7 +7332,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7165,10 +7361,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7197,13 +7393,13 @@
         <v>170</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>172</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7252,7 +7448,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7281,10 +7477,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7310,16 +7506,16 @@
         <v>214</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7347,10 +7543,10 @@
         <v>219</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7368,7 +7564,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7383,24 +7579,24 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7426,13 +7622,13 @@
         <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7461,10 +7657,10 @@
         <v>219</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7482,7 +7678,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7497,7 +7693,7 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7511,10 +7707,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7537,16 +7733,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7596,7 +7792,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7625,10 +7821,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7654,14 +7850,14 @@
         <v>305</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7710,7 +7906,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7739,10 +7935,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7768,16 +7964,16 @@
         <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7805,10 +8001,10 @@
         <v>198</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -7826,7 +8022,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -7841,24 +8037,24 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7884,13 +8080,13 @@
         <v>214</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7940,7 +8136,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7955,7 +8151,7 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -7969,10 +8165,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7995,70 +8191,70 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q54" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8073,10 +8269,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8087,10 +8283,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8113,17 +8309,17 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8172,7 +8368,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8196,15 +8392,15 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8227,19 +8423,19 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8288,7 +8484,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8306,21 +8502,21 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8343,19 +8539,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8404,7 +8600,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8419,24 +8615,24 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8459,13 +8655,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8495,10 +8691,10 @@
         <v>219</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8516,7 +8712,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8534,25 +8730,25 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8571,17 +8767,17 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8630,7 +8826,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8648,21 +8844,21 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8685,13 +8881,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8742,7 +8938,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8760,21 +8956,21 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8800,10 +8996,10 @@
         <v>224</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8854,7 +9050,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8872,23 +9068,25 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8897,10 +9095,10 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
@@ -8909,17 +9107,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>482</v>
+        <v>315</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>483</v>
+        <v>316</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>484</v>
+        <v>317</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -8968,7 +9166,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>312</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8980,23 +9178,6665 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AK66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN62" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>354</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q83" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="P112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q112" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="P120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN62">
+  <autoFilter ref="A1:AN120">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9006,7 +15846,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI119">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1553,7 +1553,7 @@
     <t>CarePlan.activity:referenciaReceta.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/RecetaPrescripcionCl)
 </t>
   </si>
   <si>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1553,7 +1553,7 @@
     <t>CarePlan.activity:referenciaReceta.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/snre/StructureDefinition/RecetaPrescripcionCl)
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4385" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4385" uniqueCount="550">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,14 +459,14 @@
     <t>Requiere-Examen</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtBoolSolicitudExamenes}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionSolicitudExamenes}
 </t>
   </si>
   <si>
     <t>Declaración si el paciente requiere exámenes</t>
   </si>
   <si>
-    <t>ExtBool Solicitud Examenes</t>
+    <t>Extensión que indica si requiere solicitud examenes</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -994,9 +994,6 @@
   </si>
   <si>
     <t>CarePlan.activity</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
@@ -5775,7 +5772,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>89</v>
@@ -5787,17 +5784,17 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5834,7 +5831,7 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
@@ -5856,13 +5853,13 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5873,10 +5870,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5902,10 +5899,10 @@
         <v>224</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5956,7 +5953,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5974,7 +5971,7 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5985,10 +5982,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6014,10 +6011,10 @@
         <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>150</v>
@@ -6070,7 +6067,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6088,7 +6085,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6099,14 +6096,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6128,10 +6125,10 @@
         <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>150</v>
@@ -6186,7 +6183,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6215,10 +6212,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6244,13 +6241,13 @@
         <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6279,11 +6276,11 @@
         <v>219</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6300,7 +6297,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6329,10 +6326,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6358,16 +6355,16 @@
         <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6416,7 +6413,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6431,10 +6428,10 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6445,10 +6442,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6471,19 +6468,19 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6532,7 +6529,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6550,21 +6547,21 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6587,19 +6584,19 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6648,7 +6645,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6657,16 +6654,16 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6677,10 +6674,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6703,17 +6700,17 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6762,7 +6759,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6771,7 +6768,7 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
@@ -6780,7 +6777,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6791,10 +6788,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6820,10 +6817,10 @@
         <v>224</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6874,7 +6871,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6892,7 +6889,7 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6903,10 +6900,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6932,10 +6929,10 @@
         <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>150</v>
@@ -6988,7 +6985,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7006,7 +7003,7 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -7017,14 +7014,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7046,10 +7043,10 @@
         <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>150</v>
@@ -7104,7 +7101,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7133,10 +7130,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7162,14 +7159,14 @@
         <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7197,11 +7194,11 @@
         <v>198</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7218,7 +7215,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7236,7 +7233,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7247,10 +7244,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7273,17 +7270,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>165</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7332,7 +7329,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7361,10 +7358,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7393,13 +7390,13 @@
         <v>170</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>172</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7448,7 +7445,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7477,10 +7474,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7506,16 +7503,16 @@
         <v>214</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7543,11 +7540,11 @@
         <v>219</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7564,7 +7561,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7579,24 +7576,24 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7622,13 +7619,13 @@
         <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7657,11 +7654,11 @@
         <v>219</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7678,7 +7675,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7693,7 +7690,7 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7707,10 +7704,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7733,16 +7730,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7792,7 +7789,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7821,10 +7818,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7850,14 +7847,14 @@
         <v>305</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7906,7 +7903,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7935,10 +7932,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7964,16 +7961,16 @@
         <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8001,11 +7998,11 @@
         <v>198</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8022,7 +8019,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -8037,24 +8034,24 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8080,13 +8077,13 @@
         <v>214</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8136,7 +8133,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8151,7 +8148,7 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -8165,10 +8162,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8191,26 +8188,26 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="O54" t="s" s="2">
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q54" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="R54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8254,7 +8251,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8269,10 +8266,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8283,10 +8280,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8309,17 +8306,17 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8368,7 +8365,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8392,15 +8389,15 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8423,19 +8420,19 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8484,7 +8481,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8502,21 +8499,21 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8539,19 +8536,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="O57" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8600,7 +8597,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8615,24 +8612,24 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8655,13 +8652,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8691,11 +8688,11 @@
         <v>219</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8712,7 +8709,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8730,25 +8727,25 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>465</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8767,17 +8764,17 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8826,7 +8823,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8844,21 +8841,21 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>473</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8881,13 +8878,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8938,7 +8935,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8956,21 +8953,21 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>478</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8996,10 +8993,10 @@
         <v>224</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9050,7 +9047,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9068,24 +9065,24 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>312</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>80</v>
@@ -9095,7 +9092,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>89</v>
@@ -9107,17 +9104,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9178,13 +9175,13 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9195,10 +9192,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9224,10 +9221,10 @@
         <v>224</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9278,7 +9275,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9296,7 +9293,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9307,10 +9304,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9336,10 +9333,10 @@
         <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>150</v>
@@ -9392,7 +9389,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9410,7 +9407,7 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9421,14 +9418,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9450,10 +9447,10 @@
         <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>150</v>
@@ -9508,7 +9505,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9537,10 +9534,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9566,13 +9563,13 @@
         <v>214</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9601,11 +9598,11 @@
         <v>219</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9622,7 +9619,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9651,10 +9648,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9680,16 +9677,16 @@
         <v>298</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9738,7 +9735,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9753,10 +9750,10 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9767,10 +9764,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9793,19 +9790,19 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -9854,7 +9851,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9872,21 +9869,21 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9909,19 +9906,19 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="M69" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -9970,7 +9967,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9979,16 +9976,16 @@
         <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -9999,10 +9996,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10025,17 +10022,17 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10084,7 +10081,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10093,7 +10090,7 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>100</v>
@@ -10102,7 +10099,7 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10113,10 +10110,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10142,10 +10139,10 @@
         <v>224</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10196,7 +10193,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10214,7 +10211,7 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10225,10 +10222,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10254,10 +10251,10 @@
         <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>150</v>
@@ -10310,7 +10307,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10328,7 +10325,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10339,14 +10336,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10368,10 +10365,10 @@
         <v>133</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>150</v>
@@ -10426,7 +10423,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10455,10 +10452,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10484,14 +10481,14 @@
         <v>108</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10519,11 +10516,11 @@
         <v>198</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Z74" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10540,7 +10537,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10558,7 +10555,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10569,10 +10566,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10595,17 +10592,17 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>165</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -10654,7 +10651,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10683,10 +10680,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10715,13 +10712,13 @@
         <v>170</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>172</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10770,7 +10767,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10799,10 +10796,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10828,16 +10825,16 @@
         <v>214</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -10865,11 +10862,11 @@
         <v>219</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Z77" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
       </c>
@@ -10886,7 +10883,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10901,24 +10898,24 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10944,13 +10941,13 @@
         <v>214</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10979,11 +10976,11 @@
         <v>219</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11000,7 +10997,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11015,7 +11012,7 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
@@ -11029,10 +11026,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11055,16 +11052,16 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11114,7 +11111,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11143,10 +11140,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11172,14 +11169,14 @@
         <v>305</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11228,7 +11225,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11257,10 +11254,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11286,16 +11283,16 @@
         <v>108</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11323,11 +11320,11 @@
         <v>198</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11344,7 +11341,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>88</v>
@@ -11359,24 +11356,24 @@
         <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AL81" t="s" s="2">
+      <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11402,13 +11399,13 @@
         <v>214</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11458,7 +11455,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11473,7 +11470,7 @@
         <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -11487,10 +11484,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11513,26 +11510,26 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="O83" t="s" s="2">
+      <c r="P83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q83" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="P83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q83" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="R83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11576,7 +11573,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11591,10 +11588,10 @@
         <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11605,10 +11602,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11631,17 +11628,17 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -11690,7 +11687,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11714,15 +11711,15 @@
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11745,19 +11742,19 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -11806,7 +11803,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11824,21 +11821,21 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11861,19 +11858,19 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="N86" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="O86" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -11922,7 +11919,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11937,24 +11934,24 @@
         <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11977,13 +11974,13 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12013,11 +12010,11 @@
         <v>219</v>
       </c>
       <c r="Y87" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Z87" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="Z87" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12034,7 +12031,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12052,25 +12049,25 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>465</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12089,17 +12086,17 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12148,7 +12145,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12166,21 +12163,21 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>473</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12203,13 +12200,13 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12260,7 +12257,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12278,21 +12275,21 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>478</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12318,10 +12315,10 @@
         <v>224</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12372,7 +12369,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12390,24 +12387,24 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>312</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>80</v>
@@ -12417,7 +12414,7 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>89</v>
@@ -12429,17 +12426,17 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -12500,13 +12497,13 @@
         <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AL91" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
@@ -12517,10 +12514,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12546,10 +12543,10 @@
         <v>224</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12600,7 +12597,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12618,7 +12615,7 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -12629,10 +12626,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12658,10 +12655,10 @@
         <v>133</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>150</v>
@@ -12714,7 +12711,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12732,7 +12729,7 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12743,14 +12740,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12772,10 +12769,10 @@
         <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>150</v>
@@ -12830,7 +12827,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12859,10 +12856,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12888,13 +12885,13 @@
         <v>214</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12923,11 +12920,11 @@
         <v>219</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AA95" t="s" s="2">
         <v>80</v>
       </c>
@@ -12944,7 +12941,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12973,10 +12970,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13002,16 +12999,16 @@
         <v>298</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13060,7 +13057,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13075,10 +13072,10 @@
         <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL96" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
@@ -13089,10 +13086,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13115,19 +13112,19 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>80</v>
@@ -13176,7 +13173,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13194,21 +13191,21 @@
         <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13231,19 +13228,19 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M98" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -13292,7 +13289,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13301,16 +13298,16 @@
         <v>88</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
@@ -13321,10 +13318,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13347,17 +13344,17 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -13406,7 +13403,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13415,7 +13412,7 @@
         <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>100</v>
@@ -13424,7 +13421,7 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
@@ -13435,10 +13432,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13464,10 +13461,10 @@
         <v>224</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13518,7 +13515,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13536,7 +13533,7 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
@@ -13547,10 +13544,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13576,10 +13573,10 @@
         <v>133</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>150</v>
@@ -13632,7 +13629,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13650,7 +13647,7 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
@@ -13661,14 +13658,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -13690,10 +13687,10 @@
         <v>133</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>150</v>
@@ -13748,7 +13745,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13777,10 +13774,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13806,14 +13803,14 @@
         <v>108</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -13841,11 +13838,11 @@
         <v>198</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Z103" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="AA103" t="s" s="2">
         <v>80</v>
       </c>
@@ -13862,7 +13859,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13880,7 +13877,7 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
@@ -13891,10 +13888,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13917,17 +13914,17 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>165</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -13976,7 +13973,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14005,10 +14002,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14037,13 +14034,13 @@
         <v>170</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>172</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -14092,7 +14089,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -14121,10 +14118,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14150,16 +14147,16 @@
         <v>214</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -14187,11 +14184,11 @@
         <v>219</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Z106" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Z106" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
       </c>
@@ -14208,7 +14205,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14223,24 +14220,24 @@
         <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL106" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL106" t="s" s="2">
+      <c r="AM106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN106" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14266,13 +14263,13 @@
         <v>214</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14301,11 +14298,11 @@
         <v>219</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z107" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AA107" t="s" s="2">
         <v>80</v>
       </c>
@@ -14322,7 +14319,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14337,7 +14334,7 @@
         <v>100</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>80</v>
@@ -14351,10 +14348,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14377,16 +14374,16 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -14436,7 +14433,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -14465,10 +14462,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14494,14 +14491,14 @@
         <v>305</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -14550,7 +14547,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14579,10 +14576,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14608,16 +14605,16 @@
         <v>108</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -14645,11 +14642,11 @@
         <v>198</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Z110" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AA110" t="s" s="2">
         <v>80</v>
       </c>
@@ -14666,7 +14663,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>88</v>
@@ -14681,24 +14678,24 @@
         <v>100</v>
       </c>
       <c r="AK110" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL110" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AL110" t="s" s="2">
+      <c r="AM110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14724,13 +14721,13 @@
         <v>214</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14780,7 +14777,7 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -14795,7 +14792,7 @@
         <v>100</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>80</v>
@@ -14809,10 +14806,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14835,26 +14832,26 @@
         <v>80</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="N112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="O112" t="s" s="2">
+      <c r="P112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q112" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="P112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q112" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="R112" t="s" s="2">
         <v>80</v>
       </c>
@@ -14898,7 +14895,7 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -14913,10 +14910,10 @@
         <v>100</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>80</v>
@@ -14927,10 +14924,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14953,17 +14950,17 @@
         <v>80</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>80</v>
@@ -15012,7 +15009,7 @@
         <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -15036,15 +15033,15 @@
         <v>80</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15067,19 +15064,19 @@
         <v>80</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>80</v>
@@ -15128,7 +15125,7 @@
         <v>80</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -15146,21 +15143,21 @@
         <v>80</v>
       </c>
       <c r="AL114" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15183,19 +15180,19 @@
         <v>80</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="N115" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="O115" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>80</v>
@@ -15244,7 +15241,7 @@
         <v>80</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -15259,24 +15256,24 @@
         <v>100</v>
       </c>
       <c r="AK115" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL115" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AL115" t="s" s="2">
+      <c r="AM115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>457</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15299,13 +15296,13 @@
         <v>80</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -15335,11 +15332,11 @@
         <v>219</v>
       </c>
       <c r="Y116" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Z116" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="Z116" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="AA116" t="s" s="2">
         <v>80</v>
       </c>
@@ -15356,7 +15353,7 @@
         <v>80</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -15374,25 +15371,25 @@
         <v>80</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN116" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>465</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -15411,17 +15408,17 @@
         <v>80</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>80</v>
@@ -15470,7 +15467,7 @@
         <v>80</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -15488,21 +15485,21 @@
         <v>80</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>473</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15525,13 +15522,13 @@
         <v>80</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15582,7 +15579,7 @@
         <v>80</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -15600,21 +15597,21 @@
         <v>80</v>
       </c>
       <c r="AL118" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>478</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15640,10 +15637,10 @@
         <v>224</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15694,7 +15691,7 @@
         <v>80</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -15712,21 +15709,21 @@
         <v>80</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15749,17 +15746,17 @@
         <v>80</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>80</v>
@@ -15808,7 +15805,7 @@
         <v>80</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15823,16 +15820,16 @@
         <v>100</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AL120" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -729,7 +729,7 @@
     <t>CarePlan.description</t>
   </si>
   <si>
-    <t>Descripción como texto libre</t>
+    <t>Indicaciones del plan de cuidado como texto libre</t>
   </si>
   <si>
     <t>A description of the scope and nature of the plan.</t>
@@ -773,11 +773,11 @@
     <t>CarePlan.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/EncounterAtenderLE)
 </t>
   </si>
   <si>
-    <t>Encounter created as part of</t>
+    <t>Encuentro en el cual se genera el plan de cuidado</t>
   </si>
   <si>
     <t>The Encounter during which this CarePlan was created or to which the creation of this record is tightly associated.</t>
@@ -4743,7 +4743,7 @@
         <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CarePlanAtenderLE.xlsx
+++ b/StructureDefinition-CarePlanAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
